--- a/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,38; 14,56</t>
+          <t>10,15; 14,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,49; 21,63</t>
+          <t>16,17; 21,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,42; 21,07</t>
+          <t>15,36; 20,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,64; 21,29</t>
+          <t>15,19; 20,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,28</t>
+          <t>18,8; 23,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,63; 31,92</t>
+          <t>26,71; 31,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,46; 24,49</t>
+          <t>19,4; 24,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,14; 29,25</t>
+          <t>23,88; 28,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 18,84</t>
+          <t>15,59; 18,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,06; 26,72</t>
+          <t>22,85; 26,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,25; 22,11</t>
+          <t>18,34; 22,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,26; 24,97</t>
+          <t>21,14; 25,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,61; 25,83</t>
+          <t>21,75; 25,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,18; 34,5</t>
+          <t>30,22; 34,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,11; 27,01</t>
+          <t>23,09; 26,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,29; 14,78</t>
+          <t>11,34; 14,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,14; 39,1</t>
+          <t>34,18; 39,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,44; 54,25</t>
+          <t>49,42; 54,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,08; 39,39</t>
+          <t>35,11; 39,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 37,35</t>
+          <t>16,75; 34,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,31; 31,54</t>
+          <t>28,31; 31,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,95; 43,29</t>
+          <t>40,12; 43,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,47; 32,48</t>
+          <t>29,38; 32,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,68; 25,71</t>
+          <t>14,84; 27,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,7; 28,01</t>
+          <t>20,72; 27,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,6; 41,84</t>
+          <t>32,41; 41,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,5; 31,27</t>
+          <t>23,55; 31,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 13,97</t>
+          <t>8,43; 14,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,34; 39,96</t>
+          <t>31,1; 40,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,94; 53,91</t>
+          <t>44,05; 53,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,91; 44,46</t>
+          <t>36,07; 44,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,31; 13,72</t>
+          <t>9,39; 13,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,85; 32,48</t>
+          <t>26,36; 32,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,66; 46,7</t>
+          <t>39,63; 46,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,7; 36,37</t>
+          <t>30,82; 36,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,23</t>
+          <t>9,47; 13,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,77; 21,46</t>
+          <t>18,87; 21,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,81; 30,86</t>
+          <t>27,77; 30,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,23; 25,28</t>
+          <t>22,21; 25,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 14,77</t>
+          <t>12,19; 14,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,72; 31,98</t>
+          <t>28,81; 32,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,2; 44,62</t>
+          <t>41,04; 44,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,66; 34,98</t>
+          <t>31,73; 34,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,84; 31,94</t>
+          <t>17,79; 27,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,26; 26,53</t>
+          <t>24,38; 26,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,06; 37,32</t>
+          <t>35,0; 37,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,52; 29,74</t>
+          <t>27,55; 29,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 22,4</t>
+          <t>15,63; 22,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 14,31</t>
+          <t>10,27; 14,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,58</t>
+          <t>16,22; 21,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,36; 20,84</t>
+          <t>15,38; 21,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,8; 23,15</t>
+          <t>18,56; 23,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,71; 31,82</t>
+          <t>26,48; 31,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,49</t>
+          <t>19,48; 24,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,59; 18,77</t>
+          <t>15,68; 18,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 26,6</t>
+          <t>22,97; 26,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,34; 22,24</t>
+          <t>18,31; 22,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,75; 25,87</t>
+          <t>21,84; 25,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,22; 34,58</t>
+          <t>30,58; 34,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,09; 26,89</t>
+          <t>23,06; 26,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,18; 39,05</t>
+          <t>34,39; 39,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,42; 54,36</t>
+          <t>49,26; 54,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,11; 39,23</t>
+          <t>34,92; 39,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,31; 31,58</t>
+          <t>28,3; 31,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>40,12; 43,47</t>
+          <t>40,07; 43,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,38; 32,38</t>
+          <t>29,4; 32,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,72; 27,98</t>
+          <t>20,7; 28,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,41; 41,91</t>
+          <t>32,57; 41,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,55; 31,39</t>
+          <t>23,37; 31,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,1; 40,25</t>
+          <t>31,17; 40,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,05; 53,96</t>
+          <t>44,01; 54,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,07; 44,42</t>
+          <t>35,76; 44,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,36; 32,25</t>
+          <t>26,91; 32,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,63; 46,18</t>
+          <t>39,36; 46,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 36,82</t>
+          <t>30,45; 36,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,87; 21,71</t>
+          <t>18,83; 21,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,77; 30,98</t>
+          <t>27,73; 31,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,21; 25,39</t>
+          <t>22,41; 25,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,81; 32,01</t>
+          <t>28,74; 31,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,04; 44,6</t>
+          <t>41,39; 44,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,73; 34,96</t>
+          <t>31,54; 34,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,38; 26,51</t>
+          <t>24,32; 26,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,0; 37,42</t>
+          <t>35,15; 37,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,55; 29,74</t>
+          <t>27,6; 29,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,42</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,22; 21,38</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,38; 21,03</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,19; 20,94</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,56; 23,09</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,48; 31,59</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,48; 24,86</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,88; 28,99</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 18,7</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,97; 26,65</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,31; 22,24</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,14; 25,06</t>
+          <t>0; 0,09</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,84; 25,84</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,58; 34,76</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,06; 26,97</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 14,67</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,39; 39,24</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,26; 54,14</t>
+          <t>0; 0,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,92; 39,47</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 34,45</t>
+          <t>0; 0,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,3; 31,56</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>40,07; 43,42</t>
+          <t>0; 0,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,4; 32,26</t>
+          <t>0; 0,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,84; 27,32</t>
+          <t>0; 0,04</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>42,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,7; 28,1</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,57; 41,58</t>
+          <t>0; 0,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,37; 31,46</t>
+          <t>0; 0,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 14,18</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,17; 40,15</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,01; 54,21</t>
+          <t>0; 0,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,76; 44,31</t>
+          <t>0; 0,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,39; 13,56</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,91; 32,66</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,36; 46,19</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,45; 36,74</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,47; 13,04</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,83; 21,65</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,73; 31,03</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,41; 25,33</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,19; 14,74</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,74; 31,91</t>
+          <t>0; 0,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,39; 44,71</t>
+          <t>0; 0,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,54; 34,93</t>
+          <t>0; 0,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,79; 27,66</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,32; 26,43</t>
+          <t>0; 0,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,15; 37,42</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,6; 29,75</t>
+          <t>0; 0,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,63; 22,66</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>17,52; 24,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>24,26; 31,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>23,44; 31,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>7,08; 11,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>25,8; 31,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>34,03; 39,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>24,97; 31,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>9,13; 12,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>23,18; 27,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>31,1; 35,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>25,26; 30,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>8,66; 11,32</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,33%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,23%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>42,14; 48,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>55,13; 61,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>45,74; 52,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,6; 9,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>55,99; 62,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>76,39; 81,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>57,87; 63,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>12,51; 46,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>50,33; 54,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>66,42; 70,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>53,24; 57,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,65; 28,9</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>42,34; 54,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>62,43; 75,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>48,69; 62,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,1; 9,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>54,2; 66,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>79,18; 89,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>65,48; 76,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,09; 12,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>49,92; 58,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>72,89; 81,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>60,13; 68,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>7,28; 10,23</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,09%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,45%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>34,77; 39,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>47,27; 51,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>41,79; 46,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,05; 8,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>44,09; 48,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>59,61; 63,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>48,93; 53,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>11,64; 37,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>40,25; 43,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>54,42; 57,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>46,58; 49,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>9,55; 22,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,16</t>
+          <t>17,29; 23,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,26; 31,44</t>
+          <t>24,35; 31,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,44; 31,3</t>
+          <t>23,12; 31,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,73</t>
+          <t>6,87; 11,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,8; 31,37</t>
+          <t>25,35; 31,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,03; 39,93</t>
+          <t>33,98; 39,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,97; 31,59</t>
+          <t>25,13; 31,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 12,58</t>
+          <t>9,06; 12,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,18; 27,39</t>
+          <t>23,33; 27,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31,1; 35,77</t>
+          <t>31,09; 35,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,26; 30,45</t>
+          <t>25,36; 30,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,66; 11,32</t>
+          <t>8,63; 11,39</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,14; 48,86</t>
+          <t>42,16; 48,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,13; 61,07</t>
+          <t>55,01; 61,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,74; 52,04</t>
+          <t>46,31; 52,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,16</t>
+          <t>5,38; 9,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,99; 62,29</t>
+          <t>56,2; 62,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,39; 81,08</t>
+          <t>76,26; 81,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,87; 63,58</t>
+          <t>57,91; 63,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,51; 46,76</t>
+          <t>12,4; 42,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,33; 54,76</t>
+          <t>50,29; 54,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>66,42; 70,47</t>
+          <t>66,26; 70,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>53,24; 57,31</t>
+          <t>53,31; 57,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 28,9</t>
+          <t>9,74; 28,2</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,34; 54,02</t>
+          <t>42,47; 54,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,43; 75,54</t>
+          <t>62,98; 75,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,69; 62,05</t>
+          <t>49,67; 62,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,68</t>
+          <t>5,21; 9,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,2; 66,49</t>
+          <t>54,45; 65,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,18; 89,04</t>
+          <t>79,04; 88,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>65,48; 76,3</t>
+          <t>65,43; 76,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,13</t>
+          <t>8,15; 12,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,92; 58,17</t>
+          <t>49,64; 58,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>72,89; 81,02</t>
+          <t>72,89; 80,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>60,13; 68,41</t>
+          <t>59,76; 68,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 10,23</t>
+          <t>7,28; 10,36</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,77; 39,3</t>
+          <t>34,72; 39,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,27; 51,51</t>
+          <t>47,13; 51,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,79; 46,7</t>
+          <t>41,9; 46,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 8,93</t>
+          <t>6,13; 8,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,09; 48,17</t>
+          <t>43,93; 47,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,61; 63,47</t>
+          <t>59,66; 63,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,93; 53,22</t>
+          <t>49,13; 53,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 37,39</t>
+          <t>11,62; 32,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,25; 43,36</t>
+          <t>40,34; 43,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>54,42; 57,43</t>
+          <t>54,53; 57,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>46,58; 49,64</t>
+          <t>46,42; 49,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 22,26</t>
+          <t>9,54; 21,83</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>137961</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>199146</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>141290</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>46261</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>285053</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>393204</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>222973</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>80779</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>423014</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>592350</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>364263</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>127039</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>117236; 161512</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>174575; 225111</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>119805; 161919</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>35355; 60217</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>253500; 313708</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>361013; 423981</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>197418; 247952</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>68419; 94024</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>391569; 456106</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>553251; 635527</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>330668; 397722</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>109612; 144725</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1254</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>427487</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>674201</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>541921</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>174242</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>599174</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>930117</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>749761</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>469960</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1026661</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1604318</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1291682</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>644202</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>396380; 458317</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>637106; 709917</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>510333; 574902</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>123129; 209683</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>568276; 629299</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>902090; 959797</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>713802; 783953</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>277409; 959667</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>981377; 1071118</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1551100; 1649712</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1244599; 1339902</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>440886; 1276954</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>140555</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>180210</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>150701</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47013</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>174472</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>226702</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>222199</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66435</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>315026</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>406911</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>372900</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>113448</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>123962; 158280</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>163473; 194866</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>133288; 166926</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33686; 63715</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>157999; 190820</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>212235; 238435</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>204423; 238076</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>53808; 80652</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>288939; 337979</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>384913; 427184</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>347084; 398271</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>95157; 135375</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1439</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1697</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>706004</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1053556</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>833912</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>267516</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1058698</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1550023</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1194933</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>617174</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1764702</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2603579</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2028845</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>884690</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>663183; 748468</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1006086; 1097432</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>791261; 873248</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>211633; 308238</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1010970; 1103813</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1499626; 1598359</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1144915; 1243104</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>424655; 1204557</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1698885; 1829024</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2534906; 2676913</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1958406; 2094518</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>677673; 1551083</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>